--- a/flows/UCIB_fund_flow_data.xlsx
+++ b/flows/UCIB_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2109"/>
+  <dimension ref="A1:B2125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21525,6 +21525,166 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2110">
+      <c r="A2110" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B2110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2111">
+      <c r="A2111" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B2111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2112">
+      <c r="A2112" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B2112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2113">
+      <c r="A2113" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B2113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2114">
+      <c r="A2114" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B2114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2115">
+      <c r="A2115" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B2115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2116">
+      <c r="A2116" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B2116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2117">
+      <c r="A2117" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B2117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2118">
+      <c r="A2118" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B2118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2119">
+      <c r="A2119" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B2119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2120">
+      <c r="A2120" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B2120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2121">
+      <c r="A2121" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B2121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2122">
+      <c r="A2122" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B2122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2123">
+      <c r="A2123" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B2123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2124">
+      <c r="A2124" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B2124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2125">
+      <c r="A2125" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B2125" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
